--- a/output/~dicom_tag_dumps.xlsx
+++ b/output/~dicom_tag_dumps.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="~dicom_tag_dumps" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$65536</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'~dicom_tag_dumps'!$A$1:$H$65536</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>

--- a/output/~dicom_tag_dumps.xlsx
+++ b/output/~dicom_tag_dumps.xlsx
@@ -10,14 +10,14 @@
     <sheet name="~dicom_tag_dumps" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'~dicom_tag_dumps'!$A$1:$H$65536</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'~dicom_tag_dumps'!$A$1:$I$65536</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>filename:</t>
   </si>
@@ -43,6 +43,9 @@
     <t>manufacturerModelName:</t>
   </si>
   <si>
+    <t>transferSyntaxUid:</t>
+  </si>
+  <si>
     <t>TG18-BR-2k-01.txt</t>
   </si>
   <si>
@@ -104,6 +107,9 @@
   </si>
   <si>
     <t>SOMATOM Definition AS</t>
+  </si>
+  <si>
+    <t>1.2.840.10008.1.2.4.70</t>
   </si>
 </sst>
 </file>
@@ -121,16 +127,15 @@
     <font>
       <b/>
       <u/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Lucida Console"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -456,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -473,9 +478,10 @@
     <col min="6" max="6" width="58.7109375" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" customWidth="1"/>
     <col min="8" max="8" width="28.7109375" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,87 +506,95 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H65536"/>
+  <autoFilter ref="A1:I65536"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/~dicom_tag_dumps.xlsx
+++ b/output/~dicom_tag_dumps.xlsx
@@ -171,7 +171,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -595,6 +616,16 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I65536"/>
+  <conditionalFormatting sqref="C2:C4">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="OT">
+      <formula>NOT(ISERROR(SEARCH("OT",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F4">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Physicists">
+      <formula>NOT(ISERROR(SEARCH("Physicists",F2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/~dicom_tag_dumps.xlsx
+++ b/output/~dicom_tag_dumps.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>filename:</t>
   </si>
@@ -70,6 +70,9 @@
     <t>TSHOW</t>
   </si>
   <si>
+    <t>LittleEndianImplicit</t>
+  </si>
+  <si>
     <t>dcmtk_dump_src.txt</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
   </si>
   <si>
     <t>SOMATOM Definition Edge</t>
+  </si>
+  <si>
+    <t>JPEGLossless:Non-hierarchical-1stOrderPrediction</t>
   </si>
   <si>
     <t>fuji_dicom_dump.txt</t>
@@ -499,7 +505,7 @@
     <col min="6" max="6" width="58.7109375" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" customWidth="1"/>
     <col min="8" max="8" width="28.7109375" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -556,62 +562,66 @@
       <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/output/~dicom_tag_dumps.xlsx
+++ b/output/~dicom_tag_dumps.xlsx
@@ -46,6 +46,51 @@
     <t>transferSyntaxUid:</t>
   </si>
   <si>
+    <t>dcmtk_dump_src.txt</t>
+  </si>
+  <si>
+    <t>DCMTK.123456789</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>AAPM_ED_CT01</t>
+  </si>
+  <si>
+    <t>CT_549121</t>
+  </si>
+  <si>
+    <t>Local Hospital</t>
+  </si>
+  <si>
+    <t>SIEMENS</t>
+  </si>
+  <si>
+    <t>SOMATOM Definition Edge</t>
+  </si>
+  <si>
+    <t>JPEGLossless:Non-hierarchical-1stOrderPrediction</t>
+  </si>
+  <si>
+    <t>fuji_dicom_dump.txt</t>
+  </si>
+  <si>
+    <t>FUJI.987654321</t>
+  </si>
+  <si>
+    <t>AAPM_ED_CT02</t>
+  </si>
+  <si>
+    <t>CT_644132</t>
+  </si>
+  <si>
+    <t>SOMATOM Definition AS</t>
+  </si>
+  <si>
+    <t>1.2.840.10008.1.2.4.70</t>
+  </si>
+  <si>
     <t>TG18-BR-2k-01.txt</t>
   </si>
   <si>
@@ -71,51 +116,6 @@
   </si>
   <si>
     <t>LittleEndianImplicit</t>
-  </si>
-  <si>
-    <t>dcmtk_dump_src.txt</t>
-  </si>
-  <si>
-    <t>DCMTK.123456789</t>
-  </si>
-  <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>AAPM_ED_CT01</t>
-  </si>
-  <si>
-    <t>CT_549121</t>
-  </si>
-  <si>
-    <t>Local Hospital</t>
-  </si>
-  <si>
-    <t>SIEMENS</t>
-  </si>
-  <si>
-    <t>SOMATOM Definition Edge</t>
-  </si>
-  <si>
-    <t>JPEGLossless:Non-hierarchical-1stOrderPrediction</t>
-  </si>
-  <si>
-    <t>fuji_dicom_dump.txt</t>
-  </si>
-  <si>
-    <t>FUJI.987654321</t>
-  </si>
-  <si>
-    <t>AAPM_ED_CT02</t>
-  </si>
-  <si>
-    <t>CT_644132</t>
-  </si>
-  <si>
-    <t>SOMATOM Definition AS</t>
-  </si>
-  <si>
-    <t>1.2.840.10008.1.2.4.70</t>
   </si>
 </sst>
 </file>
@@ -497,7 +497,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="36.7109375" customWidth="1"/>
@@ -574,48 +574,48 @@
         <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>31</v>
